--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20202.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
   <si>
     <t>Mat</t>
   </si>
@@ -94,24 +94,27 @@
     <t>XOCUA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>PALMA</t>
+  </si>
+  <si>
     <t>SERRANO</t>
   </si>
   <si>
@@ -154,22 +160,25 @@
     <t>IGNACIO</t>
   </si>
   <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>JESUS ALEXIS</t>
+  </si>
+  <si>
+    <t>OCTAVIO</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>CIELO IVETTE</t>
+  </si>
+  <si>
     <t>JOEL</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>CIELO IVETTE</t>
   </si>
 </sst>
 </file>
@@ -887,7 +896,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -928,10 +937,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -954,7 +963,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -974,10 +983,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1000,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1023,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1043,10 +1052,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1066,10 +1075,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1083,22 +1092,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920355</v>
+        <v>19330051920251</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1112,10 +1121,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1135,10 +1144,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1158,10 +1167,10 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1184,7 +1193,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1204,10 +1213,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1216,6 +1225,29 @@
         <v>11</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20202.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,111 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ADELL</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ALAIN</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>IRVING URIEL</t>
-  </si>
-  <si>
-    <t>JOSE ABRAHAM</t>
-  </si>
-  <si>
-    <t>DIANA ARELI</t>
-  </si>
-  <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>CIELO IVETTE</t>
-  </si>
-  <si>
-    <t>JOEL</t>
   </si>
 </sst>
 </file>
@@ -582,19 +477,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>61.54</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -608,19 +503,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>57.89</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -634,19 +529,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>70.59</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -702,19 +597,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>56.41</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -728,19 +623,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>47.37</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>8.300000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -754,19 +649,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>61.76</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -822,19 +717,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>61.54</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -848,19 +743,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>57.89</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -874,19 +769,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>70.59</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +791,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -929,328 +824,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920002</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920362</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920016</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920026</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920033</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920035</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920321</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920251</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920433</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920264</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920021</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920030</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920440</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920355</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20202.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20202.xlsx
@@ -7,17 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Estadisticos 1P" sheetId="1" r:id="rId1"/>
-    <sheet name="Estadisticos 2P" sheetId="2" r:id="rId2"/>
-    <sheet name="Estadisticos Final" sheetId="3" r:id="rId3"/>
-    <sheet name="Rescatables" sheetId="4" r:id="rId4"/>
+    <sheet name="Estadisticos Final" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Mat</t>
   </si>
@@ -56,24 +53,6 @@
   </si>
   <si>
     <t>4ASV</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Paterno</t>
-  </si>
-  <si>
-    <t>Materno</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Nombre_Largo</t>
-  </si>
-  <si>
-    <t>Reprobadas</t>
   </si>
 </sst>
 </file>
@@ -489,7 +468,7 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -515,7 +494,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,287 +520,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>39</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>38</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>34</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>7.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>39</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>38</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
         <v>7.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>34</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>7.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
